--- a/R/data/MW241118_tmp.xlsx
+++ b/R/data/MW241118_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="242">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -437,6 +437,306 @@
   </si>
   <si>
     <t>설창원</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>chrisjerco2@naver.com</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>이재범</t>
+  </si>
+  <si>
+    <t>altigerlee@gmail.com</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>IK</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>nayeone0306@naver.com</t>
+  </si>
+  <si>
+    <t>김나연</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>shasha4321@naver.com</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>dohojun1206@gmail.com</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>도호준</t>
+  </si>
+  <si>
+    <t>7dhw010@gmail.com</t>
+  </si>
+  <si>
+    <t>동형원</t>
+  </si>
+  <si>
+    <t>appmax1115@gmail.com</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>이민석</t>
+  </si>
+  <si>
+    <t>mi3107359@gmail.com</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>mi3106359@gmail.com</t>
+  </si>
+  <si>
+    <t>andy325874@gmail.com</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>최어진</t>
+  </si>
+  <si>
+    <t>choikang2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>sinyewon921@gamail.com</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신예원 </t>
+  </si>
+  <si>
+    <t>syw050819@naver.com</t>
+  </si>
+  <si>
+    <t>신예원</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>hyunwoo4223021@naver.com</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>전소현</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>eunllis6@gmail.com</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>박시은</t>
+  </si>
+  <si>
+    <t>chs6485@naver.com</t>
+  </si>
+  <si>
+    <t>박수환</t>
+  </si>
+  <si>
+    <t>h20202564@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>이호연</t>
+  </si>
+  <si>
+    <t>a68055637@gmail.com</t>
+  </si>
+  <si>
+    <t>이효민</t>
+  </si>
+  <si>
+    <t>lyj50315803@gmail.com</t>
+  </si>
+  <si>
+    <t>IW</t>
+  </si>
+  <si>
+    <t>이영주</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>sjw9802@naver.com</t>
+  </si>
+  <si>
+    <t>선지우</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
   </si>
 </sst>
 </file>
@@ -757,7 +1057,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O53" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O97" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -3436,49 +3736,2117 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="16">
+      <c r="A53" s="13">
         <v>45616.07278974537</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="14">
         <v>2.0225175E7</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O53" s="18" t="s">
+      <c r="F53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>45616.4062415625</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2.022296E7</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13">
+        <v>45616.40668436342</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="14">
+        <v>2.0212418E7</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>45616.548491863425</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2.0222933E7</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="13">
+        <v>45616.54850664352</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="14">
+        <v>2.0246233E7</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>45616.57566077546</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="11">
+        <v>2.0182951E7</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="13">
+        <v>45616.57576792824</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="14">
+        <v>2.0196523E7</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>45616.57656714121</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="11">
+        <v>2.0182951E7</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="13">
+        <v>45616.61360186343</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="14">
+        <v>2.0205226E7</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
+        <v>45616.65313716435</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="11">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13">
+        <v>45616.6737918287</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="14">
+        <v>2.0243903E7</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>45616.674901018516</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2.0246214E7</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="13">
+        <v>45616.701258506946</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="14">
+        <v>2.0245224E7</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O65" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>45616.71785569444</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="11">
+        <v>2.0192575E7</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="13">
+        <v>45616.718630891206</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="14">
+        <v>2.0242347E7</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>45616.760853113425</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="11">
+        <v>2.0213035E7</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="13">
+        <v>45616.791696631946</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="14">
+        <v>2.0243711E7</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>45616.79246751158</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="11">
+        <v>2.0243314E7</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="13">
+        <v>45616.81204420139</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="14">
+        <v>2.0246264E7</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>45616.812394872686</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="11">
+        <v>2.024122E7</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="13">
+        <v>45616.819194247684</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="14">
+        <v>2.024122E7</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
+        <v>45616.82193679398</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="11">
+        <v>2.0246783E7</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="13">
+        <v>45616.82206027777</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="14">
+        <v>2.0222238E7</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O75" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>45616.87542581018</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="11">
+        <v>2.0243821E7</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="13">
+        <v>45616.87907738426</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="14">
+        <v>2.0246251E7</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>45616.88277710648</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="11">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="13">
+        <v>45616.88340340278</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="14">
+        <v>2.0246221E7</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>45616.88346806713</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="11">
+        <v>2.0232512E7</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="13">
+        <v>45616.88453980324</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="14">
+        <v>2.0242613E7</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O81" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>45616.888966666666</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="11">
+        <v>2.024623E7</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="13">
+        <v>45616.89288086805</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" s="14">
+        <v>2.0243606E7</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O83" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>45616.89598001157</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="11">
+        <v>2.0245246E7</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O84" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="13">
+        <v>45616.8961427662</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" s="14">
+        <v>2.0203425E7</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O85" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
+        <v>45616.902000636575</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="11">
+        <v>2.0243618E7</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O86" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="13">
+        <v>45616.9024360301</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="14">
+        <v>2.0232417E7</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="10">
+        <v>45616.904156979166</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="11">
+        <v>2.0232417E7</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="13">
+        <v>45616.91113662037</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="14">
+        <v>2.0202564E7</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N89" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O89" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="10">
+        <v>45616.911155567126</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="11">
+        <v>2.0241077E7</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O90" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="13">
+        <v>45616.94301253472</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" s="14">
+        <v>2.0242628E7</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10">
+        <v>45616.94634765046</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" s="11">
+        <v>2.0235263E7</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="13">
+        <v>45616.94773641204</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="14">
+        <v>2.0241236E7</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O93" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10">
+        <v>45616.94827903935</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" s="11">
+        <v>2.0182346E7</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O94" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="13">
+        <v>45616.981916122684</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="14">
+        <v>2.0225175E7</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O95" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="10">
+        <v>45616.989805300924</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="11">
+        <v>2.0243622E7</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="16">
+        <v>45617.019655358796</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="17">
+        <v>2.024412E7</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O97" s="18" t="s">
         <v>19</v>
       </c>
     </row>

--- a/R/data/MW241118_tmp.xlsx
+++ b/R/data/MW241118_tmp.xlsx
@@ -10,8 +10,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="H144">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I144">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K144">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L144">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O144">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="427">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -737,6 +772,561 @@
   </si>
   <si>
     <t>박준형</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>ahrang1225@gmail.com</t>
+  </si>
+  <si>
+    <t>탁아랑</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>박채연</t>
+  </si>
+  <si>
+    <t>choag0830@naver.com</t>
+  </si>
+  <si>
+    <t>박초은</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>joyang4777@gmail.com</t>
+  </si>
+  <si>
+    <t>함현아</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>dong1star@gmail.com</t>
+  </si>
+  <si>
+    <t>최동일</t>
+  </si>
+  <si>
+    <t>soo060102@gmail.com</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>qufdldlrn@gmail.com</t>
+  </si>
+  <si>
+    <t>윤샛별</t>
+  </si>
+  <si>
+    <t>dkhong2003@gmail.com</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>홍다경</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>서민지</t>
+  </si>
+  <si>
+    <t>ming041230@gmail.com</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>gurybong@naver.com</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>최다원</t>
+  </si>
+  <si>
+    <t>a01028349689@gmail.com</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>leesamchi0511@gmail.com</t>
+  </si>
+  <si>
+    <t>홍지민</t>
+  </si>
+  <si>
+    <t>ran8410@naver.com</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>nari040812@naver.com</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>이나리</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>kang__bbo@naver.com</t>
+  </si>
+  <si>
+    <t>강다은</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>dct0807@naver.com</t>
+  </si>
+  <si>
+    <t>jf</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>junhyeogjang@gmail.com</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>seventeen894@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>서호원</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>OE</t>
+  </si>
+  <si>
+    <t>김원형</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>yuntwo22@naver.com</t>
+  </si>
+  <si>
+    <t>윤세진</t>
+  </si>
+  <si>
+    <t>kkst1324@naver.com</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>구민영</t>
+  </si>
+  <si>
+    <t>bluelion-gbn9981@naver.com</t>
+  </si>
+  <si>
+    <t>구보늬</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>corsica2001@naver.com</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>riwon1226@gmail.com</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>김리원</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>minseok1937@gmail.com</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>한동훈</t>
   </si>
 </sst>
 </file>
@@ -900,10 +1490,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -911,13 +1501,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -925,13 +1515,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1057,7 +1647,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O97" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O180" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -5804,56 +6394,3958 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="16">
+      <c r="A97" s="13">
         <v>45617.019655358796</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D97" s="17">
+      <c r="D97" s="14">
         <v>2.024412E7</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J97" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N97" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O97" s="18" t="s">
-        <v>19</v>
+      <c r="F97" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O97" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10">
+        <v>45617.4029219213</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="11">
+        <v>2.0242314E7</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O98" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="13">
+        <v>45617.43153862268</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="14">
+        <v>2.0201733E7</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N99" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O99" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="10">
+        <v>45617.43332793981</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="11">
+        <v>2.024224E7</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O100" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="13">
+        <v>45617.52846296296</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" s="14">
+        <v>2.0227141E7</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O101" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10">
+        <v>45617.53343787037</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D102" s="11">
+        <v>2.0246239E7</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O102" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="13">
+        <v>45617.593034618054</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" s="14">
+        <v>2.0246303E7</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O103" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="10">
+        <v>45617.62406581019</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" s="11">
+        <v>2.0243432E7</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O104" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="13">
+        <v>45617.66638765046</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D105" s="14">
+        <v>2.024694E7</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O105" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="10">
+        <v>45617.666835393524</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" s="11">
+        <v>2.0243741E7</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O106" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="13">
+        <v>45617.70149853009</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D107" s="14">
+        <v>2.0194153E7</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O107" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="10">
+        <v>45617.70380149306</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" s="11">
+        <v>2.0211097E7</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O108" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="13">
+        <v>45617.71812979167</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" s="14">
+        <v>2.024371E7</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M109" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O109" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="10">
+        <v>45617.718651145835</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" s="11">
+        <v>2.0245152E7</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="13">
+        <v>45617.724813043984</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D111" s="14">
+        <v>2.0211523E7</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O111" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="10">
+        <v>45617.73214591436</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" s="11">
+        <v>2.0243929E7</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O112" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="13">
+        <v>45617.78503100695</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D113" s="14">
+        <v>2.0246305E7</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O113" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="10">
+        <v>45617.785644166666</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" s="11">
+        <v>2.024365E7</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="13">
+        <v>45617.84064768518</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D115" s="14">
+        <v>2.0241044E7</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N115" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O115" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="10">
+        <v>45617.840419722226</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D116" s="11">
+        <v>2.0242525E7</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O116" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="13">
+        <v>45617.84057425926</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D117" s="14">
+        <v>2.0241044E7</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O117" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="10">
+        <v>45617.896913993056</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" s="11">
+        <v>2.0212827E7</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O118" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="13">
+        <v>45617.89792451389</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" s="14">
+        <v>2.024412E7</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O119" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="10">
+        <v>45617.91677225694</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D120" s="11">
+        <v>2.0227136E7</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O120" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="13">
+        <v>45617.91751403935</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D121" s="14">
+        <v>2.0242635E7</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O121" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="10">
+        <v>45617.92607048611</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D122" s="11">
+        <v>2.0215109E7</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O122" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="13">
+        <v>45617.96332030093</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D123" s="14">
+        <v>2.024385E7</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N123" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O123" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10">
+        <v>45617.96513896991</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" s="11">
+        <v>2.0243062E7</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O124" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="13">
+        <v>45617.99930939815</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="14">
+        <v>2.0203918E7</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N125" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O125" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10">
+        <v>45618.01175769676</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D126" s="11">
+        <v>2.0233E7</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O126" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="13">
+        <v>45618.011965405094</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D127" s="14">
+        <v>2.0241065E7</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O127" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="10">
+        <v>45618.27380013889</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="11">
+        <v>2.0246601E7</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O128" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="13">
+        <v>45618.423377569445</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D129" s="14">
+        <v>2.0184132E7</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N129" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O129" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="10">
+        <v>45618.42349568287</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D130" s="11">
+        <v>2.024383E7</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O130" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="13">
+        <v>45618.46423265046</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D131" s="14">
+        <v>2.0222606E7</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N131" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O131" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="10">
+        <v>45618.58589918981</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D132" s="11">
+        <v>2.0203211E7</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O132" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="13">
+        <v>45618.49385925926</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D133" s="14">
+        <v>2.0231706E7</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N133" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O133" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="10">
+        <v>45618.50399481482</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D134" s="11">
+        <v>2.0243933E7</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O134" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="13">
+        <v>45618.58727502315</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="14">
+        <v>2.0212609E7</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L135" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O135" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="10">
+        <v>45618.60300800926</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D136" s="11">
+        <v>2.0241003E7</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O136" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="13">
+        <v>45618.60390396991</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D137" s="14">
+        <v>2.0202501E7</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L137" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N137" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O137" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="10">
+        <v>45618.63914782407</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D138" s="11">
+        <v>2.0246206E7</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O138" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="13">
+        <v>45618.63939490741</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D139" s="14">
+        <v>2.0193305E7</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M139" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N139" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O139" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="10">
+        <v>45618.66351922454</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D140" s="11">
+        <v>2.0243961E7</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O140" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="13">
+        <v>45618.664014560185</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D141" s="14">
+        <v>2.0242138E7</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L141" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O141" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="10">
+        <v>45618.68217363426</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D142" s="11">
+        <v>2.0246248E7</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O142" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="13">
+        <v>45618.68492944444</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D143" s="14">
+        <v>2.0242418E7</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L143" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M143" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N143" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O143" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="10">
+        <v>45618.690565717596</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D144" s="11">
+        <v>2.0242724E7</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O144" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="13">
+        <v>45618.691034930554</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D145" s="14">
+        <v>2.0242982E7</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M145" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O145" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="10">
+        <v>45618.694107337964</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D146" s="11">
+        <v>2.0243933E7</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O146" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="13">
+        <v>45618.69478982639</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D147" s="14">
+        <v>2.0215199E7</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O147" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="10">
+        <v>45618.70837929398</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D148" s="11">
+        <v>2.0243702E7</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O148" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="13">
+        <v>45618.711903877316</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D149" s="14">
+        <v>2.0212818E7</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M149" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O149" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="10">
+        <v>45618.71213151621</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D150" s="11">
+        <v>2.0203918E7</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N150" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O150" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="13">
+        <v>45618.71425653935</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D151" s="14">
+        <v>2.0243917E7</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J151" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L151" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M151" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N151" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O151" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="10">
+        <v>45618.71426587963</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D152" s="11">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O152" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="13">
+        <v>45618.716526759265</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D153" s="14">
+        <v>2.0203302E7</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N153" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O153" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="10">
+        <v>45618.750079942125</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D154" s="11">
+        <v>2.0203019E7</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O154" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="13">
+        <v>45618.7503281713</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D155" s="14">
+        <v>2.0242736E7</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O155" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="10">
+        <v>45618.77080805556</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C156" s="11">
+        <v>221121.0</v>
+      </c>
+      <c r="D156" s="11">
+        <v>2.0193341E7</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O156" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="13">
+        <v>45618.78661930555</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D157" s="14">
+        <v>2.0246293E7</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L157" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M157" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N157" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O157" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="10">
+        <v>45618.78853615741</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D158" s="11">
+        <v>2.0246294E7</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O158" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="13">
+        <v>45618.792101122686</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D159" s="14">
+        <v>2.0246245E7</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O159" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="10">
+        <v>45618.793845057866</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D160" s="11">
+        <v>2.0246245E7</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O160" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="13">
+        <v>45618.79684178241</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D161" s="14">
+        <v>2.0243801E7</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M161" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N161" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O161" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="10">
+        <v>45618.798392199074</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" s="11">
+        <v>2.0222902E7</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O162" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="13">
+        <v>45618.79934055556</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D163" s="14">
+        <v>2.0246245E7</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O163" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="10">
+        <v>45618.799939375</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D164" s="11">
+        <v>2.0232216E7</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O164" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="13">
+        <v>45618.81200725694</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D165" s="14">
+        <v>2.0222514E7</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L165" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O165" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="10">
+        <v>45618.812132280094</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D166" s="11">
+        <v>2.0215144E7</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O166" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="13">
+        <v>45618.82828825232</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D167" s="14">
+        <v>2.0242424E7</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L167" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M167" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N167" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O167" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="10">
+        <v>45618.828381354164</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D168" s="11">
+        <v>2.0195206E7</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O168" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="13">
+        <v>45618.83701592592</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D169" s="14">
+        <v>2.0201004E7</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J169" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K169" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L169" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M169" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N169" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O169" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="10">
+        <v>45618.837271655095</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D170" s="11">
+        <v>2.0243403E7</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O170" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="13">
+        <v>45618.843788125</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D171" s="14">
+        <v>2.0193341E7</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J171" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L171" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O171" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="10">
+        <v>45618.846207256945</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D172" s="11">
+        <v>2.0246769E7</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O172" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="13">
+        <v>45618.85503597222</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D173" s="14">
+        <v>2.0243712E7</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K173" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L173" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M173" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N173" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O173" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="10">
+        <v>45618.856119027776</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D174" s="11">
+        <v>2.0202817E7</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O174" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="13">
+        <v>45618.92524858796</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D175" s="14">
+        <v>2.0243704E7</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N175" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O175" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="10">
+        <v>45618.92543846065</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D176" s="11">
+        <v>2.0202706E7</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O176" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="13">
+        <v>45618.92555435185</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D177" s="14">
+        <v>2.0202915E7</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L177" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M177" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N177" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O177" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="10">
+        <v>45618.92924423611</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D178" s="11">
+        <v>2.0202406E7</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M178" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O178" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="13">
+        <v>45618.93299913194</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D179" s="14">
+        <v>2.02463E7</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L179" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M179" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N179" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O179" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="16">
+        <v>45618.962217858796</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D180" s="17">
+        <v>2.0205267E7</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="F180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O180" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/R/data/MW241118_tmp.xlsx
+++ b/R/data/MW241118_tmp.xlsx
@@ -41,12 +41,22 @@
         <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="C184">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C205">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="516">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1327,6 +1337,273 @@
   </si>
   <si>
     <t>한동훈</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>simyenho8562@gmail.com</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>심연호</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>zzlsderela3355@gmail.com</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>신예진</t>
+  </si>
+  <si>
+    <t>joon020978@gmail.com</t>
+  </si>
+  <si>
+    <t>이준</t>
+  </si>
+  <si>
+    <t>zjxps2007@gmail.com</t>
+  </si>
+  <si>
+    <t>조인호</t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>cjc0623@naver.com</t>
+  </si>
+  <si>
+    <t>jjww74@naver.com</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>최재원</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>윤희주</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>rachal7449@naver.com</t>
+  </si>
+  <si>
+    <t>최자영</t>
+  </si>
+  <si>
+    <t>reasonbeans@naver.com</t>
+  </si>
+  <si>
+    <t>IY</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>kimtaehee34@naver.com</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>pumo2928@gmail.com</t>
+  </si>
+  <si>
+    <t>jiteh9491@gmail.com</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>한지예</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>nwjcq14@naver.com</t>
+  </si>
+  <si>
+    <t>JZ</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>kyj57980@naver.com</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>hlu20242513@gmail.com</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>ac3512@naver.com</t>
+  </si>
+  <si>
+    <t>김태근</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
   </si>
 </sst>
 </file>
@@ -1490,10 +1767,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1501,13 +1778,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1515,13 +1792,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1647,7 +1924,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O180" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O219" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -10295,50 +10572,1883 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="16">
+      <c r="A180" s="10">
         <v>45618.962217858796</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D180" s="17">
+      <c r="D180" s="11">
         <v>2.0205267E7</v>
       </c>
-      <c r="E180" s="17" t="s">
+      <c r="E180" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="F180" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H180" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I180" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J180" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K180" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L180" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M180" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N180" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O180" s="18" t="s">
-        <v>18</v>
+      <c r="F180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O180" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="13">
+        <v>45618.98823795139</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D181" s="14">
+        <v>2.0203046E7</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K181" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L181" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M181" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N181" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O181" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="10">
+        <v>45619.06751424768</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D182" s="11">
+        <v>2.0242925E7</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K182" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L182" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M182" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N182" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O182" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="13">
+        <v>45619.062890925925</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D183" s="14">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N183" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O183" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="10">
+        <v>45619.88146584491</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D184" s="11">
+        <v>2.0243237E7</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K184" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O184" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="13">
+        <v>45619.5067856713</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D185" s="14">
+        <v>2.0191226E7</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J185" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L185" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M185" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N185" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O185" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="10">
+        <v>45619.5620350463</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D186" s="11">
+        <v>2.0242428E7</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L186" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O186" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="13">
+        <v>45619.5834946875</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D187" s="14">
+        <v>2.0242981E7</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K187" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L187" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M187" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N187" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O187" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="10">
+        <v>45619.59241871528</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D188" s="11">
+        <v>2.0242749E7</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K188" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L188" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O188" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="13">
+        <v>45619.59732261574</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D189" s="14">
+        <v>2.0246252E7</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L189" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M189" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N189" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O189" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="10">
+        <v>45619.60556972222</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D190" s="11">
+        <v>2.024223E7</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K190" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L190" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O190" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="13">
+        <v>45619.60859534722</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D191" s="14">
+        <v>2.0195258E7</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J191" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L191" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M191" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N191" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O191" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="10">
+        <v>45619.61917348379</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D192" s="11">
+        <v>2.0234128E7</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N192" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O192" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="13">
+        <v>45619.64182251158</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D193" s="14">
+        <v>2.0243529E7</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J193" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K193" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L193" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M193" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N193" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O193" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="10">
+        <v>45619.64199082176</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D194" s="11">
+        <v>2.0243938E7</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I194" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L194" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M194" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O194" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="13">
+        <v>45619.64522392361</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D195" s="14">
+        <v>2.0243938E7</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G195" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N195" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O195" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="10">
+        <v>45619.66372165509</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D196" s="11">
+        <v>2.0241106E7</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M196" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O196" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="13">
+        <v>45619.66829465277</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D197" s="14">
+        <v>2.0215264E7</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H197" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J197" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K197" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L197" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M197" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N197" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O197" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="10">
+        <v>45619.671876354165</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D198" s="11">
+        <v>2.0203055E7</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I198" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L198" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M198" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N198" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O198" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="13">
+        <v>45619.67217280093</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D199" s="14">
+        <v>2.020107E7</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I199" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K199" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L199" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M199" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N199" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O199" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="10">
+        <v>45619.672794293976</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D200" s="11">
+        <v>2.0231621E7</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K200" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L200" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M200" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N200" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O200" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="13">
+        <v>45619.673793078706</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D201" s="14">
+        <v>2.0242753E7</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L201" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O201" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="10">
+        <v>45619.75076915509</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D202" s="11">
+        <v>2.0242339E7</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G202" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K202" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L202" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M202" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N202" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O202" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="13">
+        <v>45619.765741678246</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D203" s="14">
+        <v>2.0243007E7</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N203" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O203" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="10">
+        <v>45619.77387276621</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D204" s="11">
+        <v>2.0213241E7</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F204" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J204" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K204" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L204" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M204" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N204" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O204" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="13">
+        <v>45619.80428140046</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D205" s="14">
+        <v>2.0211625E7</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N205" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O205" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="10">
+        <v>45619.8344207176</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D206" s="11">
+        <v>2.0213839E7</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J206" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K206" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L206" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M206" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N206" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O206" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="13">
+        <v>45619.83522555555</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D207" s="14">
+        <v>2.0243949E7</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J207" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K207" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L207" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M207" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N207" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O207" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="10">
+        <v>45619.844458576394</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D208" s="11">
+        <v>2.0232941E7</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I208" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J208" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K208" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L208" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M208" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N208" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O208" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="13">
+        <v>45619.84490065972</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D209" s="14">
+        <v>2.0232527E7</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H209" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J209" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N209" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O209" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="10">
+        <v>45619.88169815972</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D210" s="11">
+        <v>2.0246302E7</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F210" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I210" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L210" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M210" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N210" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O210" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="13">
+        <v>45619.88186355324</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D211" s="14">
+        <v>2.0222367E7</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H211" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O211" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="10">
+        <v>45619.9077656713</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D212" s="11">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F212" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J212" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K212" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L212" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M212" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N212" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O212" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="13">
+        <v>45619.90820767361</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="D213" s="14">
+        <v>2.0216631E7</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K213" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O213" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="10">
+        <v>45619.90900422454</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D214" s="11">
+        <v>2.0213533E7</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J214" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L214" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O214" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="13">
+        <v>45619.92147722222</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="D215" s="14">
+        <v>2.0202319E7</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N215" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O215" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="10">
+        <v>45619.92863381944</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D216" s="11">
+        <v>2.0242513E7</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O216" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="13">
+        <v>45620.01005747685</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D217" s="14">
+        <v>2.0241517E7</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M217" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N217" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O217" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="10">
+        <v>45620.04051293981</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D218" s="11">
+        <v>2.0216609E7</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G218" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H218" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N218" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O218" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="16">
+        <v>45620.21192244213</v>
+      </c>
+      <c r="B219" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D219" s="17">
+        <v>2.0231623E7</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="F219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K219" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N219" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O219" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/MW241118_tmp.xlsx
+++ b/R/data/MW241118_tmp.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="634">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1604,6 +1604,360 @@
   </si>
   <si>
     <t>이두현</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>dbdud123456@gmail.com</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>csyoon1215@naver.com</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>천세윤</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>s454s@naver.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>이동주</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>oys55736@gmail.com</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>ojg1476@naver.com</t>
+  </si>
+  <si>
+    <t>오정건</t>
+  </si>
+  <si>
+    <t>hm703711@gmail.com</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>박현민</t>
+  </si>
+  <si>
+    <t>tonykim0703@gmail.com</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>김주엽</t>
+  </si>
+  <si>
+    <t>choyunjae2153@gmail.com</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>조윤재</t>
+  </si>
+  <si>
+    <t>yule240110@gmail.com</t>
+  </si>
+  <si>
+    <t>조율</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>to_csm@naver.com</t>
+  </si>
+  <si>
+    <t>천상미</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>ljk2942@gmail.com</t>
+  </si>
+  <si>
+    <t>이재권</t>
+  </si>
+  <si>
+    <t>ji040414@naver.com</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>최윤지</t>
+  </si>
+  <si>
+    <t>il8v6u@naver.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>GX</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>psw9879@naver.com</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>chetbaker22@naver.com</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>김채원</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>dlwl0898@naver.com</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>ljw76825119@gmail.com</t>
+  </si>
+  <si>
+    <t>kimw0707@naver.com</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>김원영</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>leeyelim0320@gmail.com</t>
+  </si>
+  <si>
+    <t>고양이</t>
+  </si>
+  <si>
+    <t>이예림</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>웅이박</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>rlaalstjd051003@naver.com</t>
+  </si>
+  <si>
+    <t>scott1234698@naver.com</t>
+  </si>
+  <si>
+    <t>우성</t>
+  </si>
+  <si>
+    <t>pjy35870859@gmail.com</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>smartcindyya@gmail.com</t>
+  </si>
+  <si>
+    <t>박지현</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>yerimyeirm11@naver.com</t>
+  </si>
+  <si>
+    <t>EO</t>
   </si>
 </sst>
 </file>
@@ -1767,10 +2121,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1778,13 +2132,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1792,13 +2146,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1924,7 +2278,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O219" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O270" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -12405,49 +12759,2446 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="16">
+      <c r="A219" s="13">
         <v>45620.21192244213</v>
       </c>
-      <c r="B219" s="17" t="s">
+      <c r="B219" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D219" s="17">
+      <c r="D219" s="14">
         <v>2.0231623E7</v>
       </c>
-      <c r="E219" s="17" t="s">
+      <c r="E219" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="F219" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H219" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I219" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J219" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K219" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L219" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M219" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N219" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O219" s="18" t="s">
+      <c r="F219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K219" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N219" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O219" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="10">
+        <v>45620.398808125</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D220" s="11">
+        <v>2.0245266E7</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J220" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M220" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O220" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="13">
+        <v>45620.53426465278</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D221" s="14">
+        <v>2.0207089E7</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H221" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J221" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L221" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M221" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N221" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O221" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="10">
+        <v>45620.54243857639</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D222" s="11">
+        <v>2.0246292E7</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O222" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="13">
+        <v>45620.55210814815</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D223" s="14">
+        <v>2.0243601E7</v>
+      </c>
+      <c r="E223" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N223" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O223" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="10">
+        <v>45620.55222770834</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D224" s="11">
+        <v>2.0246601E7</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O224" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="13">
+        <v>45620.56192836806</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D225" s="14">
+        <v>2.0181628E7</v>
+      </c>
+      <c r="E225" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G225" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H225" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K225" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L225" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N225" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O225" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="10">
+        <v>45620.563613125</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D226" s="11">
+        <v>2.0245218E7</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F226" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G226" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H226" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K226" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L226" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M226" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N226" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O226" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="13">
+        <v>45620.56951961806</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D227" s="14">
+        <v>2.0242332E7</v>
+      </c>
+      <c r="E227" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H227" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K227" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L227" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N227" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O227" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="10">
+        <v>45620.57048703704</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D228" s="11">
+        <v>2.0215187E7</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I228" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K228" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L228" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M228" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N228" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O228" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="13">
+        <v>45620.57754706018</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="D229" s="14">
+        <v>2.0202415E7</v>
+      </c>
+      <c r="E229" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H229" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M229" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N229" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O229" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="10">
+        <v>45620.588200451384</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D230" s="11">
+        <v>2.0213709E7</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I230" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J230" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K230" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L230" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M230" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N230" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O230" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="13">
+        <v>45620.58862112269</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D231" s="14">
+        <v>2.0227162E7</v>
+      </c>
+      <c r="E231" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O231" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="10">
+        <v>45620.58873778935</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D232" s="11">
+        <v>2.0243844E7</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O232" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="13">
+        <v>45620.58989861111</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D233" s="14">
+        <v>2.0243613E7</v>
+      </c>
+      <c r="E233" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N233" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O233" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="10">
+        <v>45620.59082346065</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D234" s="11">
+        <v>2.0242844E7</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O234" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="13">
+        <v>45620.619074490736</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="D235" s="14">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E235" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G235" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H235" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J235" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L235" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M235" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N235" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O235" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="10">
+        <v>45620.62078844907</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D236" s="11">
+        <v>2.9181623E7</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H236" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I236" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J236" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L236" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M236" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N236" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O236" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="13">
+        <v>45620.69885177084</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D237" s="14">
+        <v>2.0246218E7</v>
+      </c>
+      <c r="E237" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I237" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J237" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K237" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L237" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M237" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N237" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O237" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="10">
+        <v>45620.70995704861</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D238" s="11">
+        <v>2.0212555E7</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H238" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J238" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M238" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O238" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="13">
+        <v>45620.710564548615</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D239" s="14">
+        <v>2.022301E7</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M239" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O239" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="10">
+        <v>45620.71499609954</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D240" s="11">
+        <v>2.0241224E7</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J240" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K240" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L240" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M240" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N240" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O240" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="13">
+        <v>45620.71630746528</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="D241" s="14">
+        <v>2.0233055E7</v>
+      </c>
+      <c r="E241" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="F241" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H241" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I241" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J241" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K241" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L241" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M241" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N241" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O241" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="10">
+        <v>45620.717127048614</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D242" s="11">
+        <v>2.0242582E7</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G242" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I242" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J242" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K242" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L242" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M242" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N242" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O242" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="13">
+        <v>45620.74946741898</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D243" s="14">
+        <v>2.0192901E7</v>
+      </c>
+      <c r="E243" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I243" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J243" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K243" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L243" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M243" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N243" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O243" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="10">
+        <v>45620.75000384259</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="D244" s="11">
+        <v>2.0227078E7</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G244" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I244" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J244" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K244" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L244" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M244" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N244" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O244" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="13">
+        <v>45620.750891840275</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D245" s="14">
+        <v>2.0242508E7</v>
+      </c>
+      <c r="E245" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H245" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I245" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K245" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L245" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M245" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N245" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O245" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="10">
+        <v>45620.758695578705</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D246" s="11">
+        <v>2.0203322E7</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G246" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H246" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J246" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K246" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L246" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M246" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N246" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O246" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="13">
+        <v>45620.77553875</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D247" s="14">
+        <v>2.0242128E7</v>
+      </c>
+      <c r="E247" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N247" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O247" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="10">
+        <v>45620.77562532407</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D248" s="11">
+        <v>2.0242101E7</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J248" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K248" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L248" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M248" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N248" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O248" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="13">
+        <v>45620.77955020833</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="D249" s="14">
+        <v>2.0235164E7</v>
+      </c>
+      <c r="E249" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I249" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J249" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K249" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L249" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M249" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N249" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O249" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="10">
+        <v>45620.780435231485</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D250" s="11">
+        <v>2.0201031E7</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G250" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H250" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I250" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K250" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M250" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N250" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O250" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="13">
+        <v>45620.78181789352</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D251" s="14">
+        <v>2.0242901E7</v>
+      </c>
+      <c r="E251" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I251" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J251" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K251" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L251" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M251" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N251" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O251" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="10">
+        <v>45620.83869078704</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="D252" s="11">
+        <v>2.0236727E7</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G252" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H252" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I252" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J252" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K252" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L252" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M252" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N252" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O252" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="13">
+        <v>45620.838870775464</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="D253" s="14">
+        <v>2.0242824E7</v>
+      </c>
+      <c r="E253" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G253" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H253" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L253" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M253" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N253" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O253" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="10">
+        <v>45620.8398883912</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="D254" s="11">
+        <v>2.0242824E7</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I254" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J254" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K254" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L254" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M254" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N254" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O254" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="13">
+        <v>45620.847726921296</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="C255" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D255" s="14">
+        <v>2.0202561E7</v>
+      </c>
+      <c r="E255" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G255" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H255" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I255" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J255" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K255" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L255" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M255" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N255" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O255" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="10">
+        <v>45620.848198101856</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D256" s="11">
+        <v>2.024664E7</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K256" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L256" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M256" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N256" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O256" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="13">
+        <v>45620.857290879634</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="D257" s="14">
+        <v>2.0245138E7</v>
+      </c>
+      <c r="E257" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G257" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H257" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I257" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J257" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K257" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L257" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M257" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N257" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O257" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="10">
+        <v>45620.8574374537</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D258" s="11">
+        <v>2.0213609E7</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G258" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H258" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I258" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J258" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K258" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L258" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M258" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N258" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O258" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="13">
+        <v>45620.86338353009</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D259" s="14">
+        <v>2020994.0</v>
+      </c>
+      <c r="E259" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="F259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L259" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N259" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O259" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="10">
+        <v>45620.86343493055</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="D260" s="11">
+        <v>2.024413E7</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K260" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M260" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N260" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O260" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="13">
+        <v>45620.86570707176</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D261" s="14">
+        <v>2.0193633E7</v>
+      </c>
+      <c r="E261" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O261" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="10">
+        <v>45620.87010487268</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D262" s="11">
+        <v>2.0192616E7</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I262" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J262" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K262" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M262" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O262" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="13">
+        <v>45620.89238172454</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="D263" s="14">
+        <v>2.0242707E7</v>
+      </c>
+      <c r="E263" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O263" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="10">
+        <v>45620.89239716435</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D264" s="11">
+        <v>2.024101E7</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K264" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N264" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O264" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="13">
+        <v>45620.95857912037</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D265" s="14">
+        <v>2.0246633E7</v>
+      </c>
+      <c r="E265" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F265" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G265" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H265" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J265" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K265" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L265" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M265" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N265" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O265" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="10">
+        <v>45620.963223252314</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D266" s="11">
+        <v>2.0242618E7</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K266" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N266" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O266" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="13">
+        <v>45620.96509603009</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D267" s="14">
+        <v>2.0245172E7</v>
+      </c>
+      <c r="E267" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G267" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H267" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I267" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J267" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K267" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L267" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M267" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N267" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O267" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="10">
+        <v>45620.97777329861</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D268" s="11">
+        <v>2.0193633E7</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O268" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="13">
+        <v>45620.98450474537</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="D269" s="14">
+        <v>2.0231532E7</v>
+      </c>
+      <c r="E269" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="F269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N269" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O269" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="16">
+        <v>45620.986732986115</v>
+      </c>
+      <c r="B270" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D270" s="17">
+        <v>2.0192616E7</v>
+      </c>
+      <c r="E270" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="F270" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G270" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H270" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I270" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K270" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L270" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M270" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N270" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O270" s="18" t="s">
         <v>19</v>
       </c>
     </row>

--- a/R/data/MW241118_tmp.xlsx
+++ b/R/data/MW241118_tmp.xlsx
@@ -76,12 +76,42 @@
         <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="G384">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I384">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J384">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M384">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N384">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O384">
+      <text>
+        <t xml:space="preserve">응답자가 이 값을 업데이트했습니다.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="963">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2667,6 +2697,309 @@
   </si>
   <si>
     <t>장은서</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.com</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>moon050123@naver.com</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>문서원</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>nurasun050718@naver.com</t>
+  </si>
+  <si>
+    <t>이주연</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>saeul05@gmail.com</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>문새울</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>hanseoyun65@gmail.com</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>한민교</t>
+  </si>
+  <si>
+    <t>tkddnt0608@gmail.com</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>유상욱</t>
+  </si>
+  <si>
+    <t>bjd321young@gmail.com</t>
+  </si>
+  <si>
+    <t>심영찬</t>
+  </si>
+  <si>
+    <t>simyehno8562@gmail.com</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>k1j40405@naver.com</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>captaingogo@naver.com</t>
+  </si>
+  <si>
+    <t>김진안</t>
+  </si>
+  <si>
+    <t>harypoter8947@gmail.com</t>
+  </si>
+  <si>
+    <t>김석희</t>
+  </si>
+  <si>
+    <t>znfh527gkfn@naver.com</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>조준연</t>
+  </si>
+  <si>
+    <t>jjhjo2070@gmail.com</t>
+  </si>
+  <si>
+    <t>조정훈</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>bread0808@naver.com</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>soomin0282@gmail.com</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>jinhee1082@naver.com</t>
+  </si>
+  <si>
+    <t>박진희</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>azxsk0187@gmail.com</t>
+  </si>
+  <si>
+    <t>한윤서</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>8428kyn@naver.com</t>
+  </si>
+  <si>
+    <t>김예나</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t>NQ</t>
+  </si>
+  <si>
+    <t>허인</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>wendy040507@naver.com</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>mingtto0920@gmail.com</t>
+  </si>
+  <si>
+    <t>유민서</t>
   </si>
 </sst>
 </file>
@@ -2830,10 +3163,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2841,13 +3174,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2855,13 +3188,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2987,7 +3320,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O370" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O417" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="15">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -20565,50 +20898,2259 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="16">
+      <c r="A370" s="10">
         <v>45623.93821359954</v>
       </c>
-      <c r="B370" s="17" t="s">
+      <c r="B370" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="C370" s="17" t="s">
+      <c r="C370" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="D370" s="17">
+      <c r="D370" s="11">
         <v>2.022109E7</v>
       </c>
-      <c r="E370" s="17" t="s">
+      <c r="E370" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="F370" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G370" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H370" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I370" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J370" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K370" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L370" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M370" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N370" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O370" s="18" t="s">
-        <v>19</v>
+      <c r="F370" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G370" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H370" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I370" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J370" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K370" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L370" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M370" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N370" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O370" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="13">
+        <v>45623.99318996527</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="C371" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="D371" s="14">
+        <v>2.0246279E7</v>
+      </c>
+      <c r="E371" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="F371" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G371" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H371" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I371" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J371" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K371" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L371" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M371" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N371" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O371" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="10">
+        <v>45623.993282083335</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D372" s="11">
+        <v>2.0246932E7</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H372" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K372" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O372" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="13">
+        <v>45624.02430267361</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="C373" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="D373" s="14">
+        <v>2.0241518E7</v>
+      </c>
+      <c r="E373" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="F373" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L373" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O373" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="10">
+        <v>45624.467339525465</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D374" s="11">
+        <v>2.0243826E7</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="F374" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H374" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I374" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J374" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K374" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L374" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M374" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N374" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O374" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="13">
+        <v>45624.467517233796</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C375" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D375" s="14">
+        <v>2.0246631E7</v>
+      </c>
+      <c r="E375" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F375" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G375" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I375" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J375" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K375" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L375" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M375" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N375" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O375" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="10">
+        <v>45624.52253640046</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="D376" s="11">
+        <v>2.0193968E7</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="F376" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G376" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H376" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I376" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J376" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K376" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L376" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M376" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N376" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O376" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="13">
+        <v>45624.522655023145</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="C377" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="D377" s="14">
+        <v>2.0242957E7</v>
+      </c>
+      <c r="E377" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="F377" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G377" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H377" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I377" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J377" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K377" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L377" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M377" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N377" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O377" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="10">
+        <v>45624.58238590277</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="D378" s="11">
+        <v>2.0202431E7</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="F378" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H378" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I378" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J378" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K378" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L378" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M378" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N378" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O378" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="13">
+        <v>45624.605256574076</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="C379" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="D379" s="14">
+        <v>2.0242342E7</v>
+      </c>
+      <c r="E379" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="F379" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G379" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H379" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I379" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K379" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L379" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M379" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N379" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O379" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="10">
+        <v>45624.61394707176</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="D380" s="11">
+        <v>2.0243636E7</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="F380" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I380" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J380" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K380" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L380" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M380" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N380" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O380" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="13">
+        <v>45624.637094537036</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="C381" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="D381" s="14">
+        <v>2.0246225E7</v>
+      </c>
+      <c r="E381" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="F381" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G381" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H381" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I381" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K381" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L381" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M381" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N381" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O381" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="10">
+        <v>45624.63750844907</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="D382" s="11">
+        <v>2.0231708E7</v>
+      </c>
+      <c r="E382" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="F382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G382" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H382" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L382" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N382" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O382" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="13">
+        <v>45624.672883946754</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="C383" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="D383" s="14">
+        <v>2.0246621E7</v>
+      </c>
+      <c r="E383" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="F383" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G383" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H383" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I383" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J383" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K383" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L383" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M383" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N383" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O383" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="10">
+        <v>45624.67414319444</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="D384" s="11">
+        <v>2.0243815E7</v>
+      </c>
+      <c r="E384" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="F384" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G384" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H384" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I384" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K384" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L384" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M384" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N384" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O384" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="13">
+        <v>45624.74706336806</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C385" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="D385" s="14">
+        <v>2.0243964E7</v>
+      </c>
+      <c r="E385" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="F385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O385" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="10">
+        <v>45624.747375335646</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="D386" s="11">
+        <v>2.0191106E7</v>
+      </c>
+      <c r="E386" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="F386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O386" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="13">
+        <v>45624.754973055555</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="C387" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="D387" s="14">
+        <v>2.0182923E7</v>
+      </c>
+      <c r="E387" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="F387" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G387" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H387" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I387" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J387" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K387" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L387" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M387" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N387" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O387" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="10">
+        <v>45624.768307280094</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D388" s="11">
+        <v>2.0246621E7</v>
+      </c>
+      <c r="E388" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="F388" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G388" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H388" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I388" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J388" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K388" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L388" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M388" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N388" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O388" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="13">
+        <v>45624.772383958334</v>
+      </c>
+      <c r="B389" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="C389" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="D389" s="14">
+        <v>2.0241518E7</v>
+      </c>
+      <c r="E389" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="F389" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G389" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H389" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I389" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J389" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K389" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L389" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M389" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N389" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O389" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="10">
+        <v>45624.791055231486</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D390" s="11">
+        <v>2.0232335E7</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="F390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O390" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="13">
+        <v>45624.79181188658</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="C391" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D391" s="14">
+        <v>2.0242981E7</v>
+      </c>
+      <c r="E391" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F391" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G391" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H391" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I391" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J391" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K391" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L391" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M391" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N391" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O391" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="10">
+        <v>45624.79602418981</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="D392" s="11">
+        <v>2.0205139E7</v>
+      </c>
+      <c r="E392" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="F392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I392" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J392" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O392" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="13">
+        <v>45624.79574027778</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="C393" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="D393" s="14">
+        <v>2022205.0</v>
+      </c>
+      <c r="E393" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="F393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O393" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="10">
+        <v>45624.79607924768</v>
+      </c>
+      <c r="B394" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="D394" s="11">
+        <v>2.0243408E7</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H394" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K394" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N394" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O394" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="13">
+        <v>45624.796182453705</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="C395" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="D395" s="14">
+        <v>2.0243311E7</v>
+      </c>
+      <c r="E395" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="F395" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G395" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H395" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I395" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J395" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K395" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L395" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M395" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N395" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O395" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="10">
+        <v>45624.79692335648</v>
+      </c>
+      <c r="B396" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="D396" s="11">
+        <v>2.0231205E7</v>
+      </c>
+      <c r="E396" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="F396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I396" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J396" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K396" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N396" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O396" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="13">
+        <v>45624.79700171296</v>
+      </c>
+      <c r="B397" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="C397" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="D397" s="14">
+        <v>2.0222359E7</v>
+      </c>
+      <c r="E397" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="F397" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G397" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H397" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I397" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J397" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K397" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L397" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M397" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N397" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O397" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="10">
+        <v>45624.79742206019</v>
+      </c>
+      <c r="B398" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="D398" s="11">
+        <v>2.0241536E7</v>
+      </c>
+      <c r="E398" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="F398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G398" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L398" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M398" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O398" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="13">
+        <v>45624.82658</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="C399" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="D399" s="14">
+        <v>2.0243609E7</v>
+      </c>
+      <c r="E399" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="F399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O399" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="10">
+        <v>45624.82695333334</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="D400" s="11">
+        <v>2.0217035E7</v>
+      </c>
+      <c r="E400" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="F400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O400" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="13">
+        <v>45624.82776746528</v>
+      </c>
+      <c r="B401" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="C401" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="D401" s="14">
+        <v>2.0243609E7</v>
+      </c>
+      <c r="E401" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="F401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O401" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="10">
+        <v>45624.838841377314</v>
+      </c>
+      <c r="B402" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="D402" s="11">
+        <v>2.0246405E7</v>
+      </c>
+      <c r="E402" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="F402" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H402" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I402" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J402" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K402" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L402" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M402" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N402" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O402" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="13">
+        <v>45624.8415455787</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="C403" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="D403" s="14">
+        <v>2.0246614E7</v>
+      </c>
+      <c r="E403" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G403" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H403" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I403" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J403" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K403" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L403" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M403" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N403" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O403" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="10">
+        <v>45624.88518896991</v>
+      </c>
+      <c r="B404" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D404" s="11">
+        <v>2.0242323E7</v>
+      </c>
+      <c r="E404" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="F404" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G404" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H404" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I404" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J404" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K404" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L404" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M404" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N404" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O404" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="13">
+        <v>45624.88693759259</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="C405" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="D405" s="14">
+        <v>2.0213224E7</v>
+      </c>
+      <c r="E405" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="F405" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G405" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H405" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I405" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J405" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K405" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L405" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M405" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N405" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O405" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="10">
+        <v>45624.88740255787</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="D406" s="11">
+        <v>2.022253E7</v>
+      </c>
+      <c r="E406" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="F406" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G406" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H406" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I406" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J406" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K406" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L406" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M406" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N406" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O406" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="13">
+        <v>45624.89951070602</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C407" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="D407" s="14">
+        <v>2.023306E7</v>
+      </c>
+      <c r="E407" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F407" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G407" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H407" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I407" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J407" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K407" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L407" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M407" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N407" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O407" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="10">
+        <v>45624.90050094908</v>
+      </c>
+      <c r="B408" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="D408" s="11">
+        <v>2.0246301E7</v>
+      </c>
+      <c r="E408" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="F408" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G408" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H408" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I408" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J408" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K408" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L408" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M408" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N408" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O408" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="13">
+        <v>45624.907576550926</v>
+      </c>
+      <c r="B409" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="C409" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="D409" s="14">
+        <v>2.0233031E7</v>
+      </c>
+      <c r="E409" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="F409" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G409" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H409" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I409" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J409" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K409" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L409" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M409" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N409" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O409" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="10">
+        <v>45624.9088937037</v>
+      </c>
+      <c r="B410" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="D410" s="11">
+        <v>2.0193644E7</v>
+      </c>
+      <c r="E410" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="F410" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G410" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H410" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I410" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J410" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K410" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L410" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M410" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N410" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O410" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="13">
+        <v>45624.93069596065</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="D411" s="14">
+        <v>2.023371E7</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="F411" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G411" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H411" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I411" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K411" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L411" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M411" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N411" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O411" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="10">
+        <v>45624.931158113424</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="D412" s="11">
+        <v>2.0241017E7</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="F412" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G412" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H412" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I412" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J412" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K412" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L412" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M412" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N412" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O412" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="13">
+        <v>45624.93121359954</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="C413" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="D413" s="14">
+        <v>2.0242358E7</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="F413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N413" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O413" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="10">
+        <v>45624.937917557865</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="D414" s="11">
+        <v>2.0197126E7</v>
+      </c>
+      <c r="E414" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="F414" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G414" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H414" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I414" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J414" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K414" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L414" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M414" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N414" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O414" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="13">
+        <v>45624.96712616898</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="C415" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="D415" s="14">
+        <v>2.0243002E7</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="F415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O415" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="10">
+        <v>45624.96720840278</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="D416" s="11">
+        <v>2.0203635E7</v>
+      </c>
+      <c r="E416" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="F416" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G416" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H416" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I416" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J416" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K416" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L416" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M416" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N416" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O416" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="16">
+        <v>45624.986068819446</v>
+      </c>
+      <c r="B417" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C417" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D417" s="17">
+        <v>2.024254E7</v>
+      </c>
+      <c r="E417" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="F417" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G417" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H417" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I417" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J417" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K417" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L417" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M417" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N417" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O417" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
